--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">0 = assente</t>
   </si>
   <si>
-    <t xml:space="preserve">Presenza membri del progetto</t>
+    <t xml:space="preserve">Presenza membri del gruppo</t>
   </si>
   <si>
     <t xml:space="preserve">Totale ore</t>
@@ -70,7 +70,10 @@
     <t xml:space="preserve">Informatica 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistemi e reti</t>
+    <t xml:space="preserve">Sistemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storia</t>
   </si>
 </sst>
 </file>
@@ -195,59 +198,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,10 +443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -525,7 +528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
         <v>45425</v>
       </c>
@@ -546,19 +549,19 @@
       </c>
       <c r="H5" s="14" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I5" s="13" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="13" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K5" s="13" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,6 +661,66 @@
         <v>1</v>
       </c>
       <c r="F10" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">Storia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telecomunicazioni 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telecomunicazioni 2</t>
   </si>
 </sst>
 </file>
@@ -443,13 +449,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="12.46"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -549,19 +559,19 @@
       </c>
       <c r="H5" s="14" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="13" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="13" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K5" s="13" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,6 +731,46 @@
         <v>1</v>
       </c>
       <c r="F13" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Telecomunicazioni 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italiano 1 </t>
   </si>
 </sst>
 </file>
@@ -199,8 +202,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,328 +456,408 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="12.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="12.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <v>45425</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14" t="n">
+      <c r="C5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
+        <v>15</v>
+      </c>
+      <c r="I5" s="14" t="n">
+        <f aca="false">SUM(D5:D1000)</f>
+        <v>14</v>
+      </c>
+      <c r="J5" s="14" t="n">
+        <f aca="false">SUM(E5:E1000)</f>
+        <v>14</v>
+      </c>
+      <c r="K5" s="14" t="n">
+        <f aca="false">SUM(F5:F1000)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
+        <v>45427</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="n">
+        <v>45427</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
+        <v>45427</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="n">
+        <v>45430</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="13" t="n">
-        <f aca="false">SUM(D5:D1000)</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="13" t="n">
-        <f aca="false">SUM(E5:E1000)</f>
-        <v>11</v>
-      </c>
-      <c r="K5" s="13" t="n">
-        <f aca="false">SUM(F5:F1000)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
-        <v>45426</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
-        <v>45426</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
-        <v>45427</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
-        <v>45427</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
-        <v>45427</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
-        <v>45428</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
-        <v>45429</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
-        <v>45429</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
-        <v>45429</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
-        <v>45429</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="n">
+      <c r="C19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,19 +566,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="14" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,6 +858,86 @@
         <v>1</v>
       </c>
       <c r="F19" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -456,7 +456,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
@@ -578,7 +578,7 @@
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,6 +938,26 @@
         <v>1</v>
       </c>
       <c r="F23" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,19 +566,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" s="14" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,6 +958,46 @@
         <v>0</v>
       </c>
       <c r="F24" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,19 +566,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" s="14" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,6 +998,46 @@
         <v>1</v>
       </c>
       <c r="F26" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,19 +566,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="14" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,6 +1038,26 @@
         <v>1</v>
       </c>
       <c r="F28" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="n">
+        <v>45437</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -456,10 +456,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,19 +566,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="14" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,6 +1058,26 @@
         <v>1</v>
       </c>
       <c r="F29" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="n">
+        <v>45437</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Italiano 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matematica</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,19 +569,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="14" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,6 +1081,26 @@
         <v>1</v>
       </c>
       <c r="F30" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve">Matematica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnologie  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnologie 1</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,19 +575,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J5" s="14" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,6 +1107,86 @@
         <v>1</v>
       </c>
       <c r="F31" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -465,10 +465,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,19 +575,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" s="14" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,6 +1187,46 @@
         <v>1</v>
       </c>
       <c r="F35" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Storia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Telecomunicazioni 1</t>
@@ -468,7 +471,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -709,6 +712,9 @@
       <c r="F11" s="14" t="n">
         <v>0</v>
       </c>
+      <c r="G11" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
@@ -755,7 +761,7 @@
         <v>45429</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="14" t="n">
         <v>1</v>
@@ -775,7 +781,7 @@
         <v>45429</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="14" t="n">
         <v>1</v>
@@ -815,7 +821,7 @@
         <v>45432</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="14" t="n">
         <v>1</v>
@@ -875,7 +881,7 @@
         <v>45433</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="14" t="n">
         <v>1</v>
@@ -1015,7 +1021,7 @@
         <v>45436</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="14" t="n">
         <v>1</v>
@@ -1035,7 +1041,7 @@
         <v>45436</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" s="14" t="n">
         <v>1</v>
@@ -1095,7 +1101,7 @@
         <v>45439</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" s="14" t="n">
         <v>1</v>
@@ -1115,7 +1121,7 @@
         <v>45439</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" s="14" t="n">
         <v>1</v>
@@ -1155,7 +1161,7 @@
         <v>45440</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" s="14" t="n">
         <v>1</v>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tecnologie 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglese</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -578,19 +581,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J5" s="14" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,7 +715,7 @@
       <c r="F11" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1233,6 +1236,86 @@
         <v>1</v>
       </c>
       <c r="F37" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve">Inglese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motoria 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motoria 2</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -581,19 +587,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" s="14" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,6 +1322,46 @@
         <v>0</v>
       </c>
       <c r="F41" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/GuardianEye.xlsx
+++ b/GuardianEye.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t xml:space="preserve">GuardianEye</t>
   </si>
@@ -477,10 +477,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
+      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G43:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.2890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,19 +587,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">SUM(C5:C1000)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="14" t="n">
         <f aca="false">SUM(D5:D1000)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" s="14" t="n">
         <f aca="false">SUM(E5:E1000)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="14" t="n">
         <f aca="false">SUM(F5:F1000)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,7 +1327,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="n">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>26</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>27</v>
@@ -1362,6 +1362,46 @@
         <v>1</v>
       </c>
       <c r="F43" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="14" t="n">
         <v>1</v>
       </c>
     </row>
